--- a/SVP-Statistika.xlsx
+++ b/SVP-Statistika.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wexwe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Мой диск\TUKE\2 курс\Softvérové výpočtové prostriedky\SVP-Genialna_banda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A614F8-FE5C-4C63-847F-DB5AD24A69AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6366E1D4-A98E-4882-97AB-8DE8B916B6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZakladneInfo" sheetId="4" r:id="rId1"/>
@@ -638,30 +638,6 @@
     <t>Hodnota</t>
   </si>
   <si>
-    <t>1. Aritmetický priemer</t>
-  </si>
-  <si>
-    <t>2. Modus</t>
-  </si>
-  <si>
-    <t>3. Medián</t>
-  </si>
-  <si>
-    <t>4. Maximum</t>
-  </si>
-  <si>
-    <t>5. Minimum</t>
-  </si>
-  <si>
-    <t>6. Variačné rozpätie</t>
-  </si>
-  <si>
-    <t>7. Rozptyl</t>
-  </si>
-  <si>
-    <t>8. Smerodajná odchýlka</t>
-  </si>
-  <si>
     <t>Názov tímu</t>
   </si>
   <si>
@@ -708,6 +684,30 @@
   </si>
   <si>
     <t>Dátum vytvorenia</t>
+  </si>
+  <si>
+    <t>Aritmetický priemer</t>
+  </si>
+  <si>
+    <t>Modus</t>
+  </si>
+  <si>
+    <t>Medián</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Variačné rozpätie</t>
+  </si>
+  <si>
+    <t>Rozptyl</t>
+  </si>
+  <si>
+    <t>Smerodajná odchýlka</t>
   </si>
 </sst>
 </file>
@@ -887,8 +887,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -899,18 +908,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1190,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A1E872-7BEC-49A1-826B-CE51DBB40205}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1201,73 +1201,73 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>209</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>217</v>
       </c>
       <c r="B6" s="8">
         <v>2023</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>218</v>
+      <c r="A7" s="14" t="s">
+        <v>210</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>220</v>
+      <c r="A8" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="A9" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="16">
         <v>45634</v>
       </c>
     </row>
@@ -3456,12 +3456,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -3598,12 +3598,12 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -3746,8 +3746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5E5E5B-9E9D-4912-AB0A-6464E409F50A}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3765,75 +3765,67 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>199</v>
+      <c r="A2" s="15" t="s">
+        <v>215</v>
       </c>
       <c r="B2" s="9">
-        <f>AVERAGE(VstupneData!H2:H61)</f>
-        <v>303.26666666666665</v>
+        <v>306.35000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>200</v>
+      <c r="A3" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="B3" s="8">
-        <f>MODE(VstupneData!H2:H61)</f>
-        <v>250</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>201</v>
+      <c r="A4" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="B4" s="8">
-        <f>MEDIAN(VstupneData!H2:H61)</f>
-        <v>293.5</v>
+        <v>306.85714285714283</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>202</v>
+      <c r="A5" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="B5" s="8">
-        <f>MAX(VstupneData!H2:H61)</f>
         <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>203</v>
+      <c r="A6" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="B6" s="8">
-        <f>MIN(VstupneData!H2:H61)</f>
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>204</v>
+      <c r="A7" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="B7" s="8">
-        <f>B5-B6</f>
         <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>205</v>
+      <c r="A8" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="B8" s="8">
-        <f>_xlfn.VAR.P(VstupneData!H2:H61)</f>
-        <v>20428.495555555557</v>
+        <v>19792.333050847457</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>206</v>
+      <c r="A9" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="B9" s="8">
-        <f>_xlfn.STDEV.P(VstupneData!H2:H61)</f>
-        <v>142.92828815722785</v>
+        <v>140.68522683937877</v>
       </c>
     </row>
   </sheetData>
